--- a/Monk-manuscript/avgcv.xlsx
+++ b/Monk-manuscript/avgcv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melissa.monk\Documents\GitHub\habitat-indices-paper\Monk-manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E87AB5-180C-429A-8A12-97FFA3C5DFEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0580C-C156-420B-8728-9F3543C690E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1B8DBFA0-D26A-41F3-BA3E-E45EE6FFB707}"/>
   </bookViews>
@@ -30,18 +30,6 @@
     <t xml:space="preserve"> Species            </t>
   </si>
   <si>
-    <t xml:space="preserve"> Drift level Area-weighted </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drift level habitat-informed </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drift level SM-filtered </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trip-level SM-filtered </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Black rockfish     </t>
   </si>
   <si>
@@ -58,6 +46,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Vermilion rockfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area-weighted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat-informed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephens-MacCall filtered </t>
+  </si>
+  <si>
+    <t>Stephens-MacCall filtered</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,21 +422,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.443</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.13400000000000001</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.24199999999999999</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.32</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.17899999999999999</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.152</v>

--- a/Monk-manuscript/avgcv.xlsx
+++ b/Monk-manuscript/avgcv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melissa.monk\Documents\GitHub\habitat-indices-paper\Monk-manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0580C-C156-420B-8728-9F3543C690E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D2D47-45A4-4EAC-9B50-AF8AB3BCDAE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1B8DBFA0-D26A-41F3-BA3E-E45EE6FFB707}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{1B8DBFA0-D26A-41F3-BA3E-E45EE6FFB707}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,12 +412,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,106 +434,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.443</v>
+        <v>0.44260906702452502</v>
       </c>
       <c r="C2">
-        <v>0.44900000000000001</v>
+        <v>0.44931330993184498</v>
       </c>
       <c r="D2">
-        <v>0.36399999999999999</v>
+        <v>0.76410993471033894</v>
       </c>
       <c r="E2">
-        <v>0.67100000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.84954484595345803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.13400000000000001</v>
+        <v>0.134386609473158</v>
       </c>
       <c r="C3">
-        <v>0.14199999999999999</v>
+        <v>0.14154159191512899</v>
       </c>
       <c r="D3">
-        <v>9.9000000000000005E-2</v>
+        <v>0.16107345657981301</v>
       </c>
       <c r="E3">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.33249135133184399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.24199999999999999</v>
+        <v>0.24156858465198</v>
       </c>
       <c r="C4">
-        <v>0.24</v>
+        <v>0.23992989606630999</v>
       </c>
       <c r="D4">
-        <v>0.67900000000000005</v>
+        <v>0.86528804024849104</v>
       </c>
       <c r="E4">
-        <v>0.85799999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.91618807603727404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.32</v>
+        <v>0.31966533038908101</v>
       </c>
       <c r="C5">
-        <v>0.30099999999999999</v>
+        <v>0.30116402820974297</v>
       </c>
       <c r="D5">
-        <v>0.23300000000000001</v>
+        <v>0.448118735029992</v>
       </c>
       <c r="E5">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.20871137050566399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.17899999999999999</v>
+        <v>0.17854207131806199</v>
       </c>
       <c r="C6">
-        <v>0.183</v>
+        <v>0.183113197028901</v>
       </c>
       <c r="D6">
-        <v>0.13800000000000001</v>
+        <v>0.25622049823083798</v>
       </c>
       <c r="E6">
-        <v>0.626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.25351899448630599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.152</v>
+        <v>0.15191200095070601</v>
       </c>
       <c r="C7">
-        <v>0.17799999999999999</v>
+        <v>0.178188399492129</v>
       </c>
       <c r="D7">
-        <v>0.13300000000000001</v>
+        <v>0.42244511602686402</v>
       </c>
       <c r="E7">
-        <v>0.23799999999999999</v>
+        <v>0.50878893020593696</v>
       </c>
     </row>
   </sheetData>
